--- a/biology/Médecine/Centre_hospitalier_Saint-Jean-de-Dieu/Centre_hospitalier_Saint-Jean-de-Dieu.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Saint-Jean-de-Dieu/Centre_hospitalier_Saint-Jean-de-Dieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier Saint-Jean-de-Dieu est un hôpital psychiatrique fondé en 1824 par Paul de Magallon et Xavier Tissot, Frères de l'ordre hospitalier de Saint-Jean-de-Dieu. Il se situe en France dans le 8e arrondissement de Lyon, plus précisément dans le quartier du Moulin-à-vent. L'hôpital prend en charge, de manière psychiatrique, la population du sud du département du Rhône, c'est-à-dire une population de 560 148 habitants sur 1 128 km2. L'hôpital avait en 2008 une capacité de 517 lits. L'hôpital possède des jardins d'une superficie de 25 hectares[1].
-Durant la Seconde Guerre mondiale, l'asile, comme celui du Vinatier quoiqu'à un degré moindre, est affecté par une certaine surmortalité due à la sous-alimentation que les restrictions alimentaires imposées par la guerre et le régime de Vichy font subir aux pensionnaires[2]
+Le centre hospitalier Saint-Jean-de-Dieu est un hôpital psychiatrique fondé en 1824 par Paul de Magallon et Xavier Tissot, Frères de l'ordre hospitalier de Saint-Jean-de-Dieu. Il se situe en France dans le 8e arrondissement de Lyon, plus précisément dans le quartier du Moulin-à-vent. L'hôpital prend en charge, de manière psychiatrique, la population du sud du département du Rhône, c'est-à-dire une population de 560 148 habitants sur 1 128 km2. L'hôpital avait en 2008 une capacité de 517 lits. L'hôpital possède des jardins d'une superficie de 25 hectares.
+Durant la Seconde Guerre mondiale, l'asile, comme celui du Vinatier quoiqu'à un degré moindre, est affecté par une certaine surmortalité due à la sous-alimentation que les restrictions alimentaires imposées par la guerre et le régime de Vichy font subir aux pensionnaires
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bernard Glücksmann, dit Stanislas Rodanski (1927-1981),  poète et romancier surréaliste français. Interné le 31 décembre 1953, à l'âge de 27 ans, il y mourra âgé de 54 ans.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Patrimoine architectural</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mur d'enceinte de l'hôpital a été décoré d'un ensemble de fresques et d'aménagements dans le cadre de « La fresque du Demi-Millénaire[3] » pour commémorer les 500 ans de la naissance de Jean de Dieu, fondateur de l'ordre hospitalier de Saint-Jean-de-Dieu[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mur d'enceinte de l'hôpital a été décoré d'un ensemble de fresques et d'aménagements dans le cadre de « La fresque du Demi-Millénaire » pour commémorer les 500 ans de la naissance de Jean de Dieu, fondateur de l'ordre hospitalier de Saint-Jean-de-Dieu.
 </t>
         </is>
       </c>
